--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지14.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57456ABA-76C0-4B6F-86E0-F3D822F96BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CDEFAE-306C-4F25-A026-043AA4BA3575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1353">
   <si>
     <t>Time</t>
   </si>
@@ -4093,6 +4093,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -4464,20 +4467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E373" sqref="E373"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4491,10 +4493,10 @@
         <v>1351</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4509,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4524,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4644,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -4704,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4719,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -4782,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -4890,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4905,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4920,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -4935,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4950,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -4980,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -4995,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5040,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5055,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5100,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5115,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5130,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5175,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -5205,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5220,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -5295,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5340,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5370,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -5415,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -5460,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -5475,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -5490,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -5508,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -5523,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -5598,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -5616,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -5661,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -5676,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -5691,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -5706,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -5724,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5742,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -5757,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -5820,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -5835,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -5850,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -5880,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -5895,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -5925,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -5940,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -5970,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -5985,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -6000,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -6120,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -6135,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -6165,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -6252,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -6330,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -6345,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6375,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -6405,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -6441,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -6501,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -6534,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -6549,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -6564,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -6579,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -6594,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -6609,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -6624,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -6642,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -6678,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -6693,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -6708,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -6753,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>303</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -6828,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -6843,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -6858,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -6873,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -6888,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -6903,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -6954,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>323</v>
       </c>
@@ -6969,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -6984,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -7017,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -7035,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -7050,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>337</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -7146,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>347</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -7179,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>351</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -7212,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>355</v>
       </c>
@@ -7227,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -7242,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -7257,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>361</v>
       </c>
@@ -7272,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -7287,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>365</v>
       </c>
@@ -7302,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>367</v>
       </c>
@@ -7317,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>369</v>
       </c>
@@ -7332,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -7347,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>375</v>
       </c>
@@ -7377,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>377</v>
       </c>
@@ -7392,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>383</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>385</v>
       </c>
@@ -7452,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>387</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -7482,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>391</v>
       </c>
@@ -7497,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -7512,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>397</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>399</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>401</v>
       </c>
@@ -7572,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>403</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>405</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -7623,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>409</v>
       </c>
@@ -7638,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>411</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>413</v>
       </c>
@@ -7668,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>415</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>417</v>
       </c>
@@ -7698,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>419</v>
       </c>
@@ -7713,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -7728,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>423</v>
       </c>
@@ -7743,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>425</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -7803,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -7866,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>441</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>443</v>
       </c>
@@ -7896,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>445</v>
       </c>
@@ -7911,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>447</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>449</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>451</v>
       </c>
@@ -7956,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>453</v>
       </c>
@@ -7971,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -7986,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>457</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -8016,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>461</v>
       </c>
@@ -8031,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>463</v>
       </c>
@@ -8046,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>465</v>
       </c>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>467</v>
       </c>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -8091,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -8106,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>473</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>475</v>
       </c>
@@ -8136,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>477</v>
       </c>
@@ -8151,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>479</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>481</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>483</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>485</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>487</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>489</v>
       </c>
@@ -8244,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>491</v>
       </c>
@@ -8259,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>493</v>
       </c>
@@ -8274,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>495</v>
       </c>
@@ -8289,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>497</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>499</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -8334,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>503</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>505</v>
       </c>
@@ -8364,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>507</v>
       </c>
@@ -8379,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>509</v>
       </c>
@@ -8394,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>511</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>513</v>
       </c>
@@ -8424,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>515</v>
       </c>
@@ -8439,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>517</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>519</v>
       </c>
@@ -8469,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>521</v>
       </c>
@@ -8484,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>523</v>
       </c>
@@ -8499,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>525</v>
       </c>
@@ -8514,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>527</v>
       </c>
@@ -8529,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>529</v>
       </c>
@@ -8544,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>531</v>
       </c>
@@ -8559,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>533</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>535</v>
       </c>
@@ -8589,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>537</v>
       </c>
@@ -8604,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>539</v>
       </c>
@@ -8619,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>541</v>
       </c>
@@ -8634,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>542</v>
       </c>
@@ -8649,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>543</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>545</v>
       </c>
@@ -8679,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>547</v>
       </c>
@@ -8694,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>549</v>
       </c>
@@ -8709,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>551</v>
       </c>
@@ -8724,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>553</v>
       </c>
@@ -8739,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>555</v>
       </c>
@@ -8754,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>557</v>
       </c>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>559</v>
       </c>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>561</v>
       </c>
@@ -8799,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -8814,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>563</v>
       </c>
@@ -8832,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>565</v>
       </c>
@@ -8847,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>567</v>
       </c>
@@ -8862,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>569</v>
       </c>
@@ -8877,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>571</v>
       </c>
@@ -8892,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>573</v>
       </c>
@@ -8910,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>575</v>
       </c>
@@ -8925,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>577</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>579</v>
       </c>
@@ -8958,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>581</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>582</v>
       </c>
@@ -8988,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>583</v>
       </c>
@@ -9003,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>584</v>
       </c>
@@ -9018,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>586</v>
       </c>
@@ -9033,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>588</v>
       </c>
@@ -9048,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>590</v>
       </c>
@@ -9063,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>592</v>
       </c>
@@ -9078,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>594</v>
       </c>
@@ -9093,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>596</v>
       </c>
@@ -9108,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>598</v>
       </c>
@@ -9123,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>600</v>
       </c>
@@ -9138,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>602</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>604</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>606</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>608</v>
       </c>
@@ -9204,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>610</v>
       </c>
@@ -9219,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>612</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>614</v>
       </c>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>616</v>
       </c>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>618</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>620</v>
       </c>
@@ -9294,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>622</v>
       </c>
@@ -9309,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>624</v>
       </c>
@@ -9324,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>626</v>
       </c>
@@ -9339,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>628</v>
       </c>
@@ -9354,7 +9356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>630</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>632</v>
       </c>
@@ -9384,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>634</v>
       </c>
@@ -9399,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>635</v>
       </c>
@@ -9414,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>636</v>
       </c>
@@ -9429,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>638</v>
       </c>
@@ -9444,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>640</v>
       </c>
@@ -9459,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>642</v>
       </c>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>644</v>
       </c>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>646</v>
       </c>
@@ -9504,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>648</v>
       </c>
@@ -9519,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>650</v>
       </c>
@@ -9534,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>652</v>
       </c>
@@ -9549,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>654</v>
       </c>
@@ -9564,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>656</v>
       </c>
@@ -9579,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>658</v>
       </c>
@@ -9594,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>660</v>
       </c>
@@ -9609,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>662</v>
       </c>
@@ -9624,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>664</v>
       </c>
@@ -9639,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>666</v>
       </c>
@@ -9657,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>668</v>
       </c>
@@ -9672,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>670</v>
       </c>
@@ -9687,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>672</v>
       </c>
@@ -9702,7 +9704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>674</v>
       </c>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>676</v>
       </c>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>678</v>
       </c>
@@ -9750,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>680</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>682</v>
       </c>
@@ -9780,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>684</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>686</v>
       </c>
@@ -9810,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>688</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>690</v>
       </c>
@@ -9840,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>692</v>
       </c>
@@ -9855,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>694</v>
       </c>
@@ -9870,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>696</v>
       </c>
@@ -9885,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>698</v>
       </c>
@@ -9900,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>700</v>
       </c>
@@ -9915,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>702</v>
       </c>
@@ -9930,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>704</v>
       </c>
@@ -9945,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>706</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>708</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>710</v>
       </c>
@@ -9993,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>712</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>714</v>
       </c>
@@ -10023,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>716</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>718</v>
       </c>
@@ -10056,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>720</v>
       </c>
@@ -10071,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>722</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>724</v>
       </c>
@@ -10101,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>726</v>
       </c>
@@ -10116,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>728</v>
       </c>
@@ -10131,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>730</v>
       </c>
@@ -10146,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>732</v>
       </c>
@@ -10161,7 +10163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>734</v>
       </c>
@@ -10176,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>736</v>
       </c>
@@ -10194,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>738</v>
       </c>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>740</v>
       </c>
@@ -10227,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>742</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>744</v>
       </c>
@@ -10257,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>746</v>
       </c>
@@ -10272,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>748</v>
       </c>
@@ -10287,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>750</v>
       </c>
@@ -10302,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>752</v>
       </c>
@@ -10317,7 +10319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>754</v>
       </c>
@@ -10332,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>756</v>
       </c>
@@ -10347,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>758</v>
       </c>
@@ -10362,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>760</v>
       </c>
@@ -10377,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>762</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>764</v>
       </c>
@@ -10407,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>766</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>768</v>
       </c>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>770</v>
       </c>
@@ -10452,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>772</v>
       </c>
@@ -10467,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>774</v>
       </c>
@@ -10482,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>776</v>
       </c>
@@ -10497,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>778</v>
       </c>
@@ -10512,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>780</v>
       </c>
@@ -10527,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>782</v>
       </c>
@@ -10542,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>784</v>
       </c>
@@ -10557,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>786</v>
       </c>
@@ -10572,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>788</v>
       </c>
@@ -10587,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>790</v>
       </c>
@@ -10602,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>792</v>
       </c>
@@ -10620,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>794</v>
       </c>
@@ -10635,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>796</v>
       </c>
@@ -10650,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>798</v>
       </c>
@@ -10665,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>800</v>
       </c>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>802</v>
       </c>
@@ -10695,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>804</v>
       </c>
@@ -10710,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>806</v>
       </c>
@@ -10725,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>808</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>810</v>
       </c>
@@ -10755,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>812</v>
       </c>
@@ -10770,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>814</v>
       </c>
@@ -10785,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>816</v>
       </c>
@@ -10800,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>818</v>
       </c>
@@ -10815,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>820</v>
       </c>
@@ -10830,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>822</v>
       </c>
@@ -10845,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>824</v>
       </c>
@@ -10863,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>826</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>828</v>
       </c>
@@ -10899,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>830</v>
       </c>
@@ -10914,7 +10916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>832</v>
       </c>
@@ -10929,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>834</v>
       </c>
@@ -10944,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>835</v>
       </c>
@@ -10959,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>837</v>
       </c>
@@ -10974,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>839</v>
       </c>
@@ -10989,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>841</v>
       </c>
@@ -11004,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>843</v>
       </c>
@@ -11019,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>845</v>
       </c>
@@ -11037,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>847</v>
       </c>
@@ -11052,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>849</v>
       </c>
@@ -11067,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>851</v>
       </c>
@@ -11082,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>853</v>
       </c>
@@ -11097,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>855</v>
       </c>
@@ -11115,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>857</v>
       </c>
@@ -11130,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>858</v>
       </c>
@@ -11145,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>860</v>
       </c>
@@ -11160,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>862</v>
       </c>
@@ -11175,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>864</v>
       </c>
@@ -11190,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>866</v>
       </c>
@@ -11208,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>868</v>
       </c>
@@ -11223,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>870</v>
       </c>
@@ -11238,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>872</v>
       </c>
@@ -11253,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>874</v>
       </c>
@@ -11271,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>876</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>878</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>880</v>
       </c>
@@ -11316,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>882</v>
       </c>
@@ -11331,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>884</v>
       </c>
@@ -11346,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>886</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>888</v>
       </c>
@@ -11376,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>890</v>
       </c>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>892</v>
       </c>
@@ -11406,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>894</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>896</v>
       </c>
@@ -11436,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>898</v>
       </c>
@@ -11451,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>900</v>
       </c>
@@ -11466,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>902</v>
       </c>
@@ -11481,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>904</v>
       </c>
@@ -11496,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>906</v>
       </c>
@@ -11511,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>908</v>
       </c>
@@ -11526,7 +11528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>910</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>912</v>
       </c>
@@ -11556,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>914</v>
       </c>
@@ -11571,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>916</v>
       </c>
@@ -11586,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>918</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>920</v>
       </c>
@@ -11616,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>922</v>
       </c>
@@ -11631,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>924</v>
       </c>
@@ -11646,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>926</v>
       </c>
@@ -11664,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>928</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>930</v>
       </c>
@@ -11700,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>932</v>
       </c>
@@ -11715,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>934</v>
       </c>
@@ -11730,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>936</v>
       </c>
@@ -11745,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>938</v>
       </c>
@@ -11760,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>940</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>942</v>
       </c>
@@ -11790,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>944</v>
       </c>
@@ -11805,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>946</v>
       </c>
@@ -11820,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>948</v>
       </c>
@@ -11835,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>950</v>
       </c>
@@ -11850,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>952</v>
       </c>
@@ -11865,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>954</v>
       </c>
@@ -11880,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>956</v>
       </c>
@@ -11895,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>958</v>
       </c>
@@ -11910,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>960</v>
       </c>
@@ -11925,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>962</v>
       </c>
@@ -11943,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>964</v>
       </c>
@@ -11958,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>966</v>
       </c>
@@ -11976,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>968</v>
       </c>
@@ -11991,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>970</v>
       </c>
@@ -12006,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>972</v>
       </c>
@@ -12021,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>974</v>
       </c>
@@ -12036,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>976</v>
       </c>
@@ -12051,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>978</v>
       </c>
@@ -12069,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>980</v>
       </c>
@@ -12087,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>982</v>
       </c>
@@ -12102,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>984</v>
       </c>
@@ -12117,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>986</v>
       </c>
@@ -12132,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>988</v>
       </c>
@@ -12147,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>990</v>
       </c>
@@ -12162,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>992</v>
       </c>
@@ -12177,7 +12179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>994</v>
       </c>
@@ -12192,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>996</v>
       </c>
@@ -12207,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>998</v>
       </c>
@@ -12222,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1000</v>
       </c>
@@ -12237,7 +12239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1002</v>
       </c>
@@ -12252,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1004</v>
       </c>
@@ -12267,7 +12269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1006</v>
       </c>
@@ -12282,7 +12284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1008</v>
       </c>
@@ -12297,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1010</v>
       </c>
@@ -12312,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1012</v>
       </c>
@@ -12327,7 +12329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1014</v>
       </c>
@@ -12342,7 +12344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1016</v>
       </c>
@@ -12357,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1018</v>
       </c>
@@ -12372,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1020</v>
       </c>
@@ -12387,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1022</v>
       </c>
@@ -12402,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1024</v>
       </c>
@@ -12417,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1026</v>
       </c>
@@ -12432,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1028</v>
       </c>
@@ -12447,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1030</v>
       </c>
@@ -12462,7 +12464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1032</v>
       </c>
@@ -12477,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1034</v>
       </c>
@@ -12492,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1036</v>
       </c>
@@ -12507,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1038</v>
       </c>
@@ -12522,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1040</v>
       </c>
@@ -12537,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1042</v>
       </c>
@@ -12552,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1044</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1046</v>
       </c>
@@ -12582,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1048</v>
       </c>
@@ -12597,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1050</v>
       </c>
@@ -12615,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1052</v>
       </c>
@@ -12633,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1054</v>
       </c>
@@ -12648,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1056</v>
       </c>
@@ -12663,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1058</v>
       </c>
@@ -12678,7 +12680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1060</v>
       </c>
@@ -12693,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1062</v>
       </c>
@@ -12708,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1064</v>
       </c>
@@ -12723,7 +12725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1066</v>
       </c>
@@ -12738,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1068</v>
       </c>
@@ -12753,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1070</v>
       </c>
@@ -12768,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1072</v>
       </c>
@@ -12783,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1074</v>
       </c>
@@ -12798,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1076</v>
       </c>
@@ -12813,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1078</v>
       </c>
@@ -12828,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1080</v>
       </c>
@@ -12843,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1082</v>
       </c>
@@ -12858,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1084</v>
       </c>
@@ -12873,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1086</v>
       </c>
@@ -12891,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1088</v>
       </c>
@@ -12909,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1090</v>
       </c>
@@ -12924,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1092</v>
       </c>
@@ -12939,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1094</v>
       </c>
@@ -12954,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1096</v>
       </c>
@@ -12969,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1098</v>
       </c>
@@ -12984,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1100</v>
       </c>
@@ -12999,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1102</v>
       </c>
@@ -13014,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1104</v>
       </c>
@@ -13029,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1106</v>
       </c>
@@ -13044,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1108</v>
       </c>
@@ -13059,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1110</v>
       </c>
@@ -13077,7 +13079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1112</v>
       </c>
@@ -13092,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1114</v>
       </c>
@@ -13107,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1116</v>
       </c>
@@ -13122,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1118</v>
       </c>
@@ -13137,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1120</v>
       </c>
@@ -13152,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1122</v>
       </c>
@@ -13167,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1124</v>
       </c>
@@ -13182,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1126</v>
       </c>
@@ -13197,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1128</v>
       </c>
@@ -13212,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1130</v>
       </c>
@@ -13227,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1132</v>
       </c>
@@ -13242,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1134</v>
       </c>
@@ -13257,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1136</v>
       </c>
@@ -13272,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1137</v>
       </c>
@@ -13287,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1139</v>
       </c>
@@ -13302,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1141</v>
       </c>
@@ -13317,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1143</v>
       </c>
@@ -13332,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1145</v>
       </c>
@@ -13347,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1147</v>
       </c>
@@ -13362,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1149</v>
       </c>
@@ -13377,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1151</v>
       </c>
@@ -13392,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1153</v>
       </c>
@@ -13407,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1155</v>
       </c>
@@ -13422,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1157</v>
       </c>
@@ -13437,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1159</v>
       </c>
@@ -13452,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1161</v>
       </c>
@@ -13467,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1163</v>
       </c>
@@ -13482,7 +13484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1165</v>
       </c>
@@ -13497,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1167</v>
       </c>
@@ -13512,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1169</v>
       </c>
@@ -13527,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1171</v>
       </c>
@@ -13542,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1173</v>
       </c>
@@ -13557,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1175</v>
       </c>
@@ -13572,7 +13574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1177</v>
       </c>
@@ -13587,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1179</v>
       </c>
@@ -13602,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1181</v>
       </c>
@@ -13617,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1183</v>
       </c>
@@ -13632,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1185</v>
       </c>
@@ -13647,7 +13649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1187</v>
       </c>
@@ -13662,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1189</v>
       </c>
@@ -13677,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1191</v>
       </c>
@@ -13692,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1193</v>
       </c>
@@ -13707,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1195</v>
       </c>
@@ -13722,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1197</v>
       </c>
@@ -13737,7 +13739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1199</v>
       </c>
@@ -13752,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1201</v>
       </c>
@@ -13770,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1203</v>
       </c>
@@ -13785,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1205</v>
       </c>
@@ -13800,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1207</v>
       </c>
@@ -13818,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1209</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1211</v>
       </c>
@@ -13848,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1213</v>
       </c>
@@ -13863,7 +13865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1215</v>
       </c>
@@ -13878,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1217</v>
       </c>
@@ -13893,7 +13895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1219</v>
       </c>
@@ -13908,7 +13910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1221</v>
       </c>
@@ -13923,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1223</v>
       </c>
@@ -13938,7 +13940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1225</v>
       </c>
@@ -13953,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1227</v>
       </c>
@@ -13968,7 +13970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1229</v>
       </c>
@@ -13983,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1231</v>
       </c>
@@ -13998,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1233</v>
       </c>
@@ -14013,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1235</v>
       </c>
@@ -14028,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1237</v>
       </c>
@@ -14043,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1239</v>
       </c>
@@ -14061,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1241</v>
       </c>
@@ -14079,7 +14081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1243</v>
       </c>
@@ -14094,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1245</v>
       </c>
@@ -14109,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1247</v>
       </c>
@@ -14127,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1249</v>
       </c>
@@ -14142,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1251</v>
       </c>
@@ -14160,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1253</v>
       </c>
@@ -14175,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1255</v>
       </c>
@@ -14193,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1257</v>
       </c>
@@ -14208,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1259</v>
       </c>
@@ -14226,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1261</v>
       </c>
@@ -14241,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1263</v>
       </c>
@@ -14256,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1265</v>
       </c>
@@ -14274,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1267</v>
       </c>
@@ -14289,7 +14291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1268</v>
       </c>
@@ -14304,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1270</v>
       </c>
@@ -14319,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1272</v>
       </c>
@@ -14334,7 +14336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1274</v>
       </c>
@@ -14349,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1276</v>
       </c>
@@ -14364,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1278</v>
       </c>
@@ -14379,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1280</v>
       </c>
@@ -14397,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1282</v>
       </c>
@@ -14412,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1283</v>
       </c>
@@ -14427,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1285</v>
       </c>
@@ -14442,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1287</v>
       </c>
@@ -14460,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1289</v>
       </c>
@@ -14475,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1291</v>
       </c>
@@ -14490,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1293</v>
       </c>
@@ -14505,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1295</v>
       </c>
@@ -14520,7 +14522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1297</v>
       </c>
@@ -14535,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1299</v>
       </c>
@@ -14550,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1301</v>
       </c>
@@ -14565,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1303</v>
       </c>
@@ -14580,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1305</v>
       </c>
@@ -14595,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1307</v>
       </c>
@@ -14610,7 +14612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1309</v>
       </c>
@@ -14625,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1311</v>
       </c>
@@ -14640,7 +14642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1313</v>
       </c>
@@ -14655,7 +14657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1315</v>
       </c>
@@ -14670,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1317</v>
       </c>
@@ -14685,7 +14687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1319</v>
       </c>
@@ -14703,7 +14705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1321</v>
       </c>
@@ -14718,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1323</v>
       </c>
@@ -14733,7 +14735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1325</v>
       </c>
@@ -14751,7 +14753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1327</v>
       </c>
@@ -14769,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1329</v>
       </c>
@@ -14784,7 +14786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1331</v>
       </c>
@@ -14799,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1333</v>
       </c>
@@ -14814,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1335</v>
       </c>
@@ -14832,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1337</v>
       </c>
@@ -14847,7 +14849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1339</v>
       </c>
@@ -14865,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1341</v>
       </c>
@@ -14883,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1343</v>
       </c>
@@ -14898,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1345</v>
       </c>
@@ -14913,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1347</v>
       </c>
@@ -14931,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1349</v>
       </c>
@@ -14950,16 +14952,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E682" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E682" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지14.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7165AC-C7A0-46FD-A677-BE1838FE82E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DE3379-FEDD-4388-ADE9-B44A7D17708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2537" yWindow="2537" windowWidth="16329" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4470,7 +4470,7 @@
   <dimension ref="A1:F682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4511,7 +4511,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4526,11 +4525,10 @@
         <v>3.4221474081277847E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4545,11 +4543,10 @@
         <v>0.98538762331008911</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4564,11 +4561,10 @@
         <v>1.385847292840481E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4583,11 +4579,10 @@
         <v>1.414555590599775E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4602,11 +4597,10 @@
         <v>5.3831510245800018E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4621,11 +4615,10 @@
         <v>1.515699177980423E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4640,11 +4633,10 @@
         <v>7.3455475270748138E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4659,11 +4651,10 @@
         <v>1.4517161995172501E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4678,11 +4669,10 @@
         <v>1.4303323812782759E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4697,11 +4687,10 @@
         <v>4.2264938354492188E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4716,11 +4705,10 @@
         <v>3.8356516510248177E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4735,11 +4723,10 @@
         <v>0.21753700077533719</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4754,11 +4741,10 @@
         <v>1.599987223744392E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4773,11 +4759,10 @@
         <v>2.0108107477426529E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4792,11 +4777,10 @@
         <v>1.497565861791372E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4811,11 +4795,10 @@
         <v>0.87672001123428345</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18">
@@ -4833,11 +4816,10 @@
         <v>1.5890747308731079E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4852,11 +4834,10 @@
         <v>1.3594005256891251E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4871,11 +4852,10 @@
         <v>1.364672929048538E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4890,11 +4870,10 @@
         <v>1.370479073375463E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4909,11 +4888,10 @@
         <v>2.1450528874993321E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4928,11 +4906,10 @@
         <v>1.378411985933781E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4947,11 +4924,10 @@
         <v>0.92154091596603394</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25">
@@ -4969,11 +4945,10 @@
         <v>1.392197702080011E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4988,11 +4963,10 @@
         <v>1.3791109435260299E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5007,11 +4981,10 @@
         <v>1.6291730105876919E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5026,11 +4999,10 @@
         <v>1.3753026723861691E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5045,11 +5017,10 @@
         <v>1.968836598098278E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5064,11 +5035,10 @@
         <v>1.376171503216028E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5083,11 +5053,10 @@
         <v>1.6523558646440509E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5102,11 +5071,10 @@
         <v>1.39333987608552E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5121,11 +5089,10 @@
         <v>1.4196089468896391E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5140,11 +5107,10 @@
         <v>1.5462883748114111E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5159,11 +5125,10 @@
         <v>1.9578553736209869E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5178,11 +5143,10 @@
         <v>1.3925394974648951E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5197,11 +5161,10 @@
         <v>1.6360543668270111E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5216,11 +5179,10 @@
         <v>1.5229286625981329E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5235,11 +5197,10 @@
         <v>1.418130937963724E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5254,11 +5215,10 @@
         <v>1.48557061329484E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5273,11 +5233,10 @@
         <v>1.361727993935347E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5292,11 +5251,10 @@
         <v>1.369604654610157E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5311,11 +5269,10 @@
         <v>0.21760329604148859</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5330,11 +5287,10 @@
         <v>1.3869248330593111E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5349,11 +5305,10 @@
         <v>4.6167369931936257E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5368,11 +5323,10 @@
         <v>1.5417848713695999E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5387,11 +5341,10 @@
         <v>2.6969693601131439E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5406,11 +5359,10 @@
         <v>1.3882370665669439E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5425,11 +5377,10 @@
         <v>1.3813884928822521E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5444,11 +5395,10 @@
         <v>1.3821032829582689E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5463,11 +5413,10 @@
         <v>1.3576510362327101E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5482,11 +5431,10 @@
         <v>0.97983634471893311</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5501,11 +5449,10 @@
         <v>1.366777811199427E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5520,11 +5467,10 @@
         <v>4.1544541716575623E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5539,11 +5485,10 @@
         <v>1.367946434766054E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5558,11 +5503,10 @@
         <v>1.3866555877029899E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5577,11 +5521,10 @@
         <v>1.7669763416051861E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5596,11 +5539,10 @@
         <v>3.868599608540535E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5615,11 +5557,10 @@
         <v>1.3593782670795919E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5634,11 +5575,10 @@
         <v>1.41657991334796E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5653,11 +5593,10 @@
         <v>1.3691248372197149E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5672,11 +5611,10 @@
         <v>1.524141896516085E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5691,11 +5629,10 @@
         <v>1.424981467425823E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5710,11 +5647,10 @@
         <v>1.383744087070227E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5729,11 +5665,10 @@
         <v>1.381131913512945E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -5748,11 +5683,10 @@
         <v>1.3986873440444469E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5767,11 +5701,10 @@
         <v>0.98542433977127075</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F68">
@@ -5789,11 +5722,10 @@
         <v>5.5131733417510993E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5808,11 +5740,10 @@
         <v>1.400525961071253E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5827,11 +5758,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5846,11 +5776,10 @@
         <v>1.36434817686677E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5865,11 +5794,10 @@
         <v>1.469285413622856E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5884,11 +5812,10 @@
         <v>1.3803495094180111E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5903,11 +5830,10 @@
         <v>0.98525267839431763</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F75">
@@ -5925,11 +5851,10 @@
         <v>1.8878398463130001E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5944,11 +5869,10 @@
         <v>0.93454992771148682</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5963,11 +5887,10 @@
         <v>0.75955146551132202</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5982,11 +5905,10 @@
         <v>1.420783903449774E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6001,11 +5923,10 @@
         <v>0.96052956581115723</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6020,11 +5941,10 @@
         <v>1.3817400671541691E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6039,11 +5959,10 @@
         <v>0.98546499013900757</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F82">
@@ -6061,11 +5980,10 @@
         <v>0.98389673233032227</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F83">
@@ -6083,11 +6001,10 @@
         <v>1.3719648122787481E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6102,11 +6019,10 @@
         <v>0.93396258354187012</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F85">
@@ -6124,11 +6040,10 @@
         <v>4.3622348457574837E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6143,11 +6058,10 @@
         <v>2.100970596075058E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6162,11 +6076,10 @@
         <v>1.3735858723521229E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6181,11 +6094,10 @@
         <v>1.3718679547309881E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6200,11 +6112,10 @@
         <v>0.98547887802124023</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6219,11 +6130,10 @@
         <v>3.6130394786596298E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6238,11 +6148,10 @@
         <v>2.9077250510454181E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6257,11 +6166,10 @@
         <v>0.98477280139923096</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6276,11 +6184,10 @@
         <v>1.5914075076580051E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6295,11 +6202,10 @@
         <v>0.98542988300323486</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6314,11 +6220,10 @@
         <v>0.98547101020812988</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6333,11 +6238,10 @@
         <v>1.6574172303080559E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6352,11 +6256,10 @@
         <v>1.388860587030649E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6371,11 +6274,10 @@
         <v>1.364624127745628E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6390,11 +6292,10 @@
         <v>1.378541626036167E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6409,11 +6310,10 @@
         <v>0.57745963335037231</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6428,11 +6328,10 @@
         <v>0.98488348722457886</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6447,11 +6346,10 @@
         <v>2.2387072443962101E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6466,11 +6364,10 @@
         <v>1.5106494538486E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6485,11 +6382,10 @@
         <v>1.3625660911202431E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6504,11 +6400,10 @@
         <v>1.37109337374568E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6523,11 +6418,10 @@
         <v>1.3666274026036261E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6542,11 +6436,10 @@
         <v>1.567481271922588E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6561,11 +6454,10 @@
         <v>0.97860968112945557</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6580,11 +6472,10 @@
         <v>1.3774199411272999E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6599,11 +6490,10 @@
         <v>2.824798971414566E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6618,11 +6508,10 @@
         <v>1.5353629365563389E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6637,11 +6526,10 @@
         <v>0.98531371355056763</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F113">
@@ -6659,11 +6547,10 @@
         <v>0.98514670133590698</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F114">
@@ -6681,11 +6568,10 @@
         <v>0.97834831476211548</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F115">
@@ -6703,11 +6589,10 @@
         <v>0.98494046926498413</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F116">
@@ -6725,11 +6610,10 @@
         <v>1.4242188073694709E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6744,11 +6628,10 @@
         <v>0.98378527164459229</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F118">
@@ -6766,11 +6649,10 @@
         <v>0.21753373742103579</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6785,11 +6667,10 @@
         <v>3.733743354678154E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6804,11 +6685,10 @@
         <v>1.5204291790723801E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6823,11 +6703,10 @@
         <v>1.5121465548872949E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6842,11 +6721,10 @@
         <v>1.5956299379467961E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6861,11 +6739,10 @@
         <v>1.485966239124537E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6880,11 +6757,10 @@
         <v>1.8511375412344929E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6899,11 +6775,10 @@
         <v>1.373954210430384E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6918,11 +6793,10 @@
         <v>0.90411669015884399</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F127">
@@ -6940,11 +6814,10 @@
         <v>0.69072884321212769</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F128">
@@ -6962,11 +6835,10 @@
         <v>4.1561823338270187E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6981,11 +6853,10 @@
         <v>1.468257233500481E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -7000,11 +6871,10 @@
         <v>1.3707562349736691E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7019,11 +6889,10 @@
         <v>1.384822558611631E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7038,11 +6907,10 @@
         <v>1.3845282606780531E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7057,11 +6925,10 @@
         <v>0.98460578918457031</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F134">
@@ -7079,11 +6946,10 @@
         <v>1.372059714049101E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7098,11 +6964,10 @@
         <v>1.373026613146067E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7117,11 +6982,10 @@
         <v>1.445838063955307E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7136,11 +7000,10 @@
         <v>2.381980046629906E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7155,11 +7018,10 @@
         <v>1.360427122563124E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7174,11 +7036,10 @@
         <v>1.493694446980953E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7193,11 +7054,10 @@
         <v>0.75222313404083252</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F141">
@@ -7215,11 +7075,10 @@
         <v>0.98546439409255981</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F142">
@@ -7237,11 +7096,10 @@
         <v>0.90226668119430542</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F143">
@@ -7259,11 +7117,10 @@
         <v>1.386207714676857E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7278,11 +7135,10 @@
         <v>9.6061199903488159E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7297,11 +7153,10 @@
         <v>1.4356705360114569E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7316,11 +7171,10 @@
         <v>0.9849773645401001</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7335,11 +7189,10 @@
         <v>1.605738885700703E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7354,11 +7207,10 @@
         <v>0.21789450943470001</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7373,11 +7225,10 @@
         <v>1.6269642859697338E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7392,11 +7243,10 @@
         <v>3.9354860782623291E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7411,11 +7261,10 @@
         <v>1.3757871463894841E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7430,11 +7279,10 @@
         <v>0.97975915670394897</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7449,11 +7297,10 @@
         <v>1.360690779983997E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7468,11 +7315,10 @@
         <v>1.421187352389097E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7487,11 +7333,10 @@
         <v>2.1940536797046661E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7506,11 +7351,10 @@
         <v>1.424307841807604E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7525,11 +7369,10 @@
         <v>2.68106684088707E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7544,11 +7387,10 @@
         <v>0.77902823686599731</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F159">
@@ -7566,11 +7408,10 @@
         <v>3.8353584706783288E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7585,11 +7426,10 @@
         <v>0.98540419340133667</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F161">
@@ -7607,11 +7447,10 @@
         <v>4.3224439024925232E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7626,11 +7465,10 @@
         <v>0.9854743480682373</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7645,11 +7483,10 @@
         <v>1.364190969616175E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7664,11 +7501,10 @@
         <v>0.98532897233963013</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F165">
@@ -7686,11 +7522,10 @@
         <v>0.90369212627410889</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F166">
@@ -7708,11 +7543,10 @@
         <v>7.636115700006485E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7727,11 +7561,10 @@
         <v>2.855223044753075E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7746,11 +7579,10 @@
         <v>1.3649412430822849E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7765,11 +7597,10 @@
         <v>4.859083890914917E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7784,11 +7615,10 @@
         <v>1.3551398180425171E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7803,11 +7633,10 @@
         <v>0.83310353755950928</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F172">
@@ -7825,11 +7654,10 @@
         <v>0.98529863357543945</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F173">
@@ -7847,11 +7675,10 @@
         <v>1.35830957442522E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7866,11 +7693,10 @@
         <v>0.67502832412719727</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F175">
@@ -7888,11 +7714,10 @@
         <v>1.875751651823521E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7907,11 +7732,10 @@
         <v>0.89934056997299194</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F177">
@@ -7929,11 +7753,10 @@
         <v>5.6428905576467507E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7948,11 +7771,10 @@
         <v>0.21751593053340909</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7967,11 +7789,10 @@
         <v>8.207576721906662E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7986,11 +7807,10 @@
         <v>1.9658146426081661E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8005,11 +7825,10 @@
         <v>1.9333461299538609E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8024,11 +7843,10 @@
         <v>1.401098258793354E-2</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8043,11 +7861,10 @@
         <v>1.4212462119758131E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8062,11 +7879,10 @@
         <v>1.50468535721302E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8081,11 +7897,10 @@
         <v>3.9526630192995071E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8100,11 +7915,10 @@
         <v>0.98540973663330078</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8119,11 +7933,10 @@
         <v>0.98103755712509155</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8138,11 +7951,10 @@
         <v>4.8173293471336358E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8157,11 +7969,10 @@
         <v>1.376352179795504E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8176,11 +7987,10 @@
         <v>0.98540711402893066</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8195,11 +8005,10 @@
         <v>0.93963378667831421</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8214,11 +8023,10 @@
         <v>1.7354769632220272E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8233,11 +8041,10 @@
         <v>4.8793759196996689E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
     </row>
@@ -8252,11 +8059,10 @@
         <v>1.3929834589362139E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8271,11 +8077,10 @@
         <v>0.1423060595989227</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8290,11 +8095,10 @@
         <v>1.4167344197630881E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8309,11 +8113,10 @@
         <v>1.4570618979632849E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8328,11 +8131,10 @@
         <v>0.96083980798721313</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8347,11 +8149,10 @@
         <v>1.434088498353958E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8366,11 +8167,10 @@
         <v>1.4200734905898569E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8385,11 +8185,10 @@
         <v>0.92533046007156372</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F202">
@@ -8407,11 +8206,10 @@
         <v>0.16660505533218381</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8426,11 +8224,10 @@
         <v>0.89186525344848633</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F204">
@@ -8448,11 +8245,10 @@
         <v>0.13456468284130099</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8467,11 +8263,10 @@
         <v>0.2175193578004837</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8486,11 +8281,10 @@
         <v>1.3889794237911699E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8505,11 +8299,10 @@
         <v>1.529083214700222E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8524,11 +8317,10 @@
         <v>1.3833568431437021E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8543,11 +8335,10 @@
         <v>1.3912606053054329E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8562,11 +8353,10 @@
         <v>1.428824476897717E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8581,11 +8371,10 @@
         <v>1.359526626765728E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8600,11 +8389,10 @@
         <v>4.5148100703954697E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8619,11 +8407,10 @@
         <v>0.26993823051452642</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8638,11 +8425,10 @@
         <v>1.514310389757156E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8657,11 +8443,10 @@
         <v>1.417601760476828E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8676,11 +8461,10 @@
         <v>0.73207038640975952</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F217">
@@ -8698,11 +8482,10 @@
         <v>1.380951423197985E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8717,11 +8500,10 @@
         <v>4.6157490462064743E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8736,11 +8518,10 @@
         <v>1.382502447813749E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8755,11 +8536,10 @@
         <v>0.98541498184204102</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8774,11 +8554,10 @@
         <v>0.98547321557998657</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8793,11 +8572,10 @@
         <v>1.4091251417994499E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8812,11 +8590,10 @@
         <v>1.3721706345677379E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8831,11 +8608,10 @@
         <v>1.381784211844206E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8850,11 +8626,10 @@
         <v>1.38885136693716E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8869,11 +8644,10 @@
         <v>1.3819329440593719E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8888,11 +8662,10 @@
         <v>1.3656674884259701E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8907,11 +8680,10 @@
         <v>1.367488969117403E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8926,11 +8698,10 @@
         <v>1.5060867182910441E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8945,11 +8716,10 @@
         <v>1.3605077750980851E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8964,11 +8734,10 @@
         <v>1.3773343525826929E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8983,11 +8752,10 @@
         <v>1.4462335035204891E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9002,11 +8770,10 @@
         <v>3.9414636790752411E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9021,11 +8788,10 @@
         <v>2.443339116871357E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9040,11 +8806,10 @@
         <v>1.3781119138002401E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9059,11 +8824,10 @@
         <v>1.396584510803223E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9078,11 +8842,10 @@
         <v>1.3782292604446409E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9097,11 +8860,10 @@
         <v>1.366009935736656E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9116,11 +8878,10 @@
         <v>1.3717874884605409E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9135,11 +8896,10 @@
         <v>1.428891811519861E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9154,11 +8914,10 @@
         <v>1.357735227793455E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9173,11 +8932,10 @@
         <v>0.62566232681274414</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F243">
@@ -9195,11 +8953,10 @@
         <v>1.3743691146373751E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9214,11 +8971,10 @@
         <v>1.3742475770413881E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9233,11 +8989,10 @@
         <v>1.498254109174013E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9252,11 +9007,10 @@
         <v>1.8126290291547779E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9271,11 +9025,10 @@
         <v>0.98545527458190918</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9290,11 +9043,10 @@
         <v>1.4090291224420071E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9309,11 +9061,10 @@
         <v>1.3722061179578301E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9328,11 +9079,10 @@
         <v>4.156624898314476E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9347,11 +9097,10 @@
         <v>0.21747016906738281</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9366,11 +9115,10 @@
         <v>1.367040164768696E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9385,11 +9133,10 @@
         <v>1.370755489915609E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9404,11 +9151,10 @@
         <v>1.431289408355951E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9423,11 +9169,10 @@
         <v>0.19887420535087591</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9442,11 +9187,10 @@
         <v>2.837950736284256E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9461,11 +9205,10 @@
         <v>0.9354245662689209</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>1</v>
       </c>
     </row>
@@ -9480,11 +9223,10 @@
         <v>4.3795399367809303E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9499,11 +9241,10 @@
         <v>1.3642974197864531E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9518,11 +9259,10 @@
         <v>1.3796117156744E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9537,11 +9277,10 @@
         <v>1.5476321801543239E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9556,11 +9295,10 @@
         <v>2.1366314962506291E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9575,11 +9313,10 @@
         <v>1.3751242309808729E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9594,11 +9331,10 @@
         <v>1.4108936302363871E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9613,11 +9349,10 @@
         <v>1.3953374698758131E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9632,11 +9367,10 @@
         <v>1.5233278274536129E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9651,11 +9385,10 @@
         <v>1.396504510194063E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9670,11 +9403,10 @@
         <v>1.6230478882789608E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9689,11 +9421,10 @@
         <v>1.4004639349877831E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9708,11 +9439,10 @@
         <v>1.3953374698758131E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9727,11 +9457,10 @@
         <v>1.5233278274536129E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9746,11 +9475,10 @@
         <v>1.379225682467222E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9765,11 +9493,10 @@
         <v>1.660957932472229E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9784,11 +9511,10 @@
         <v>1.367316674441099E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9803,11 +9529,10 @@
         <v>1.6467195004224781E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9822,11 +9547,10 @@
         <v>1.530100125819445E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9841,11 +9565,10 @@
         <v>0.2173302620649338</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9860,11 +9583,10 @@
         <v>1.6031419858336449E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9879,11 +9601,10 @@
         <v>1.38589683920145E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9898,11 +9619,10 @@
         <v>1.386059075593948E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9917,11 +9637,10 @@
         <v>1.3953374698758131E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9936,11 +9655,10 @@
         <v>1.5233278274536129E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9955,11 +9673,10 @@
         <v>0.98530673980712891</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F284">
@@ -9977,11 +9694,10 @@
         <v>1.368961948901415E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9996,11 +9712,10 @@
         <v>1.41048850491643E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10015,11 +9730,10 @@
         <v>0.96771764755249023</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10034,11 +9748,10 @@
         <v>1.623591594398022E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10053,11 +9766,10 @@
         <v>0.98515862226486206</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F289">
@@ -10075,11 +9787,10 @@
         <v>2.7022073045372959E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10094,11 +9805,10 @@
         <v>0.98336535692214966</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F291">
@@ -10116,11 +9826,10 @@
         <v>1.3797726482152941E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10135,11 +9844,10 @@
         <v>1.660957932472229E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10154,11 +9862,10 @@
         <v>1.367316674441099E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10173,11 +9880,10 @@
         <v>1.6467195004224781E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10192,11 +9898,10 @@
         <v>1.4266723766922951E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10211,11 +9916,10 @@
         <v>1.386853121221066E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10230,11 +9934,10 @@
         <v>1.439933944493532E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10249,11 +9952,10 @@
         <v>2.2634495049715039E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10268,11 +9970,10 @@
         <v>1.385259535163641E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10287,11 +9988,10 @@
         <v>2.0413868129253391E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10306,11 +10006,10 @@
         <v>2.1390605717897419E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10325,11 +10024,10 @@
         <v>1.369408890604973E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10344,11 +10042,10 @@
         <v>1.370213460177183E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10363,11 +10060,10 @@
         <v>1.3662527315318579E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10382,11 +10078,10 @@
         <v>0.98455053567886353</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F306">
@@ -10404,11 +10099,10 @@
         <v>0.98547470569610596</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F307">
@@ -10426,11 +10120,10 @@
         <v>1.3649399392306799E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10445,11 +10138,10 @@
         <v>1.3958709314465519E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10464,11 +10156,10 @@
         <v>1.443556230515242E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10483,11 +10174,10 @@
         <v>1.3620925135910509E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10502,11 +10192,10 @@
         <v>1.5131396241486071E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10521,11 +10210,10 @@
         <v>1.4001611620187759E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10540,11 +10228,10 @@
         <v>0.21736554801464081</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10559,11 +10246,10 @@
         <v>1.3683066703379151E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10578,11 +10264,10 @@
         <v>0.98541748523712158</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10597,11 +10282,10 @@
         <v>1.3663928955793381E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10616,11 +10300,10 @@
         <v>0.98546093702316284</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10635,11 +10318,10 @@
         <v>0.98548024892807007</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10654,11 +10336,10 @@
         <v>0.21781450510025019</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10673,11 +10354,10 @@
         <v>0.98548024892807007</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10692,11 +10372,10 @@
         <v>0.98547887802124023</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>1</v>
       </c>
     </row>
@@ -10711,11 +10390,10 @@
         <v>0.98547947406768799</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10730,11 +10408,10 @@
         <v>0.98508495092391968</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10749,11 +10426,10 @@
         <v>5.7391185313463211E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10768,11 +10444,10 @@
         <v>1.3639401644468309E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10787,11 +10462,10 @@
         <v>1.3747698627412319E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10806,11 +10480,10 @@
         <v>1.474386639893055E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10825,11 +10498,10 @@
         <v>1.385457720607519E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10844,11 +10516,10 @@
         <v>5.7112444192171097E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10863,11 +10534,10 @@
         <v>1.4605097472667691E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10882,11 +10552,10 @@
         <v>1.3636636547744271E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10901,11 +10570,10 @@
         <v>3.6117542535066598E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10920,11 +10588,10 @@
         <v>1.6772352159023281E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10939,11 +10606,10 @@
         <v>1.433530542999506E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10958,11 +10624,10 @@
         <v>1.3832067139446741E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10977,11 +10642,10 @@
         <v>1.376602705568075E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10996,11 +10660,10 @@
         <v>0.97118234634399414</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F338">
@@ -11018,11 +10681,10 @@
         <v>1.356757897883654E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11037,11 +10699,10 @@
         <v>1.3619388453662401E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11056,11 +10717,10 @@
         <v>0.98547804355621338</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11075,11 +10735,10 @@
         <v>0.7524750828742981</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F342">
@@ -11097,11 +10756,10 @@
         <v>1.4545110985636709E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11116,11 +10774,10 @@
         <v>1.431057322770357E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11135,11 +10792,10 @@
         <v>1.3845367357134821E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11154,11 +10810,10 @@
         <v>0.9853246808052063</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11173,11 +10828,10 @@
         <v>1.7254650592803959E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11192,11 +10846,10 @@
         <v>3.389059379696846E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11211,11 +10864,10 @@
         <v>1.3719648122787481E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11230,11 +10882,10 @@
         <v>1.365793962031603E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11249,11 +10900,10 @@
         <v>1.395148504525423E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11268,11 +10918,10 @@
         <v>1.358545292168856E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11287,11 +10936,10 @@
         <v>1.42614534124732E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11306,11 +10954,10 @@
         <v>0.97944039106369019</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11325,11 +10972,10 @@
         <v>3.3755272626876831E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11344,11 +10990,10 @@
         <v>3.502655029296875E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11363,11 +11008,10 @@
         <v>1.369874645024538E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11382,11 +11026,10 @@
         <v>0.98541563749313354</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F358">
@@ -11404,11 +11047,10 @@
         <v>0.98548072576522827</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11423,11 +11065,10 @@
         <v>1.373576931655407E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11442,11 +11083,10 @@
         <v>1.373246219009161E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11461,11 +11101,10 @@
         <v>3.3972591161727912E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11480,11 +11119,10 @@
         <v>1.3658576644957071E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11499,11 +11137,10 @@
         <v>0.77906787395477295</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F364">
@@ -11521,11 +11158,10 @@
         <v>1.412502955645323E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11540,11 +11176,10 @@
         <v>1.377584505826235E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11559,11 +11194,10 @@
         <v>2.205733768641949E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11578,11 +11212,10 @@
         <v>0.98547887802124023</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11597,11 +11230,10 @@
         <v>0.98538267612457275</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11616,11 +11248,10 @@
         <v>1.3918645679950711E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11635,11 +11266,10 @@
         <v>0.98548418283462524</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11654,11 +11284,10 @@
         <v>3.9164230227470398E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11673,11 +11302,10 @@
         <v>0.88082867860794067</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F373">
@@ -11695,11 +11323,10 @@
         <v>0.98528242111206055</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F374">
@@ -11717,11 +11344,10 @@
         <v>1.378142274916172E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11736,11 +11362,10 @@
         <v>1.5328715555369851E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11755,11 +11380,10 @@
         <v>1.4345718547701841E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11774,11 +11398,10 @@
         <v>0.98518663644790649</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11793,11 +11416,10 @@
         <v>0.98547691106796265</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11812,11 +11434,10 @@
         <v>5.0707463175058358E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11831,11 +11452,10 @@
         <v>0.98548084497451782</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11850,11 +11470,10 @@
         <v>1.5093418769538401E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11869,11 +11488,10 @@
         <v>1.3650207780301569E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11888,11 +11506,10 @@
         <v>1.366387773305178E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11907,11 +11524,10 @@
         <v>1.375038828700781E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11926,11 +11542,10 @@
         <v>1.3644714839756491E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -11945,11 +11560,10 @@
         <v>1.36759439483285E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11964,11 +11578,10 @@
         <v>1.371186319738626E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11983,11 +11596,10 @@
         <v>1.4113327488303179E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12002,11 +11614,10 @@
         <v>2.377248182892799E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12021,11 +11632,10 @@
         <v>7.554452121257782E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12040,11 +11650,10 @@
         <v>1.383100543171167E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12059,11 +11668,10 @@
         <v>1.3891329057514669E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12078,11 +11686,10 @@
         <v>9.4090968370437622E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12097,11 +11704,10 @@
         <v>4.6164829283952713E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12116,11 +11722,10 @@
         <v>1.3705382123589519E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12135,11 +11740,10 @@
         <v>6.3993200659751892E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12154,11 +11758,10 @@
         <v>2.6992302387952801E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12173,11 +11776,10 @@
         <v>1.434248220175505E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12192,11 +11794,10 @@
         <v>3.248046338558197E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12211,11 +11812,10 @@
         <v>0.98310607671737671</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F401">
@@ -12233,11 +11833,10 @@
         <v>1.395947020500898E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12252,11 +11851,10 @@
         <v>1.402757316827774E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12271,11 +11869,10 @@
         <v>1.373978052288294E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12290,11 +11887,10 @@
         <v>0.1109386011958122</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12309,11 +11905,10 @@
         <v>1.3615435920655731E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12328,11 +11923,10 @@
         <v>5.1747400313615799E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12347,11 +11941,10 @@
         <v>1.4280819334089759E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12366,11 +11959,10 @@
         <v>1.375736016780138E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12385,11 +11977,10 @@
         <v>1.440360955893993E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12404,11 +11995,10 @@
         <v>0.93249452114105225</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12423,11 +12013,10 @@
         <v>1.4187297783792021E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12442,11 +12031,10 @@
         <v>1.367092225700617E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12461,11 +12049,10 @@
         <v>1.5965212136507031E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12480,11 +12067,10 @@
         <v>1.3898647390305999E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12499,11 +12085,10 @@
         <v>1.465665642172098E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12518,11 +12103,10 @@
         <v>0.98521703481674194</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F417">
@@ -12540,11 +12124,10 @@
         <v>0.95272040367126465</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F418">
@@ -12562,11 +12145,10 @@
         <v>0.94928336143493652</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F419">
@@ -12584,11 +12166,10 @@
         <v>0.98521578311920166</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12603,11 +12184,10 @@
         <v>1.3833192177116869E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12622,11 +12202,10 @@
         <v>1.3833192177116869E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12641,11 +12220,10 @@
         <v>4.1198473423719413E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12660,11 +12238,10 @@
         <v>1.434983219951391E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12679,11 +12256,10 @@
         <v>1.405833754688501E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12698,11 +12274,10 @@
         <v>1.3875113800168039E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12717,11 +12292,10 @@
         <v>3.3537186682224267E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12736,11 +12310,10 @@
         <v>0.98543465137481689</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F428">
@@ -12758,11 +12331,10 @@
         <v>1.3776699081063271E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12777,11 +12349,10 @@
         <v>1.6851618885993961E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12796,11 +12367,10 @@
         <v>1.436475198715925E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12815,11 +12385,10 @@
         <v>0.9752800464630127</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12834,11 +12403,10 @@
         <v>0.9722827672958374</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F433">
@@ -12856,11 +12424,10 @@
         <v>3.389059379696846E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12875,11 +12442,10 @@
         <v>0.72562146186828613</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12894,11 +12460,10 @@
         <v>0.9847450852394104</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12913,11 +12478,10 @@
         <v>0.2171228229999542</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12932,11 +12496,10 @@
         <v>1.360839325934649E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12951,11 +12514,10 @@
         <v>0.98546957969665527</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F439">
@@ -12973,11 +12535,10 @@
         <v>1.378436665982008E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12992,11 +12553,10 @@
         <v>1.8237920477986339E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13011,11 +12571,10 @@
         <v>1.429058983922005E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13030,11 +12589,10 @@
         <v>0.98475015163421631</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F443">
@@ -13052,11 +12610,10 @@
         <v>1.3804430142045019E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13071,11 +12628,10 @@
         <v>1.415962725877762E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13090,11 +12646,10 @@
         <v>1.3709393329918379E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13109,11 +12664,10 @@
         <v>3.0448304489254951E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13128,11 +12682,10 @@
         <v>1.369886752218008E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13147,11 +12700,10 @@
         <v>1.832790486514568E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13166,11 +12718,10 @@
         <v>1.367442589253187E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13185,11 +12736,10 @@
         <v>1.3591761700809E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13204,11 +12754,10 @@
         <v>1.358880754560232E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13223,11 +12772,10 @@
         <v>1.3611095026135439E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13242,11 +12790,10 @@
         <v>1.3613559305667881E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13261,11 +12808,10 @@
         <v>1.4585669152438641E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13280,11 +12826,10 @@
         <v>1.3972721993923191E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13299,11 +12844,10 @@
         <v>5.6166652590036392E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13318,11 +12862,10 @@
         <v>1.363533455878496E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13337,11 +12880,10 @@
         <v>1.357174012809992E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13356,11 +12898,10 @@
         <v>1.377336960285902E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13375,11 +12916,10 @@
         <v>1.3855664990842341E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13394,11 +12934,10 @@
         <v>1.381766609847546E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13413,11 +12952,10 @@
         <v>3.2648202031850808E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13432,11 +12970,10 @@
         <v>0.19958044588565829</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13451,11 +12988,10 @@
         <v>1.384630426764488E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13470,11 +13006,10 @@
         <v>1.5770299360156059E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13489,11 +13024,10 @@
         <v>1.369658764451742E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13508,11 +13042,10 @@
         <v>1.4591037295758721E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13527,11 +13060,10 @@
         <v>0.93841814994812012</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F469">
@@ -13549,11 +13081,10 @@
         <v>0.98466891050338745</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F470">
@@ -13571,11 +13102,10 @@
         <v>0.89854282140731812</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F471">
@@ -13593,11 +13123,10 @@
         <v>1.365880109369755E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13612,11 +13141,10 @@
         <v>1.365844812244177E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13631,11 +13159,10 @@
         <v>1.387562789022923E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13650,11 +13177,10 @@
         <v>1.5937114134430889E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13669,11 +13195,10 @@
         <v>1.432484667748213E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13688,11 +13213,10 @@
         <v>1.3595297001302241E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13707,11 +13231,10 @@
         <v>0.2173984497785568</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13726,11 +13249,10 @@
         <v>1.372790895402431E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13745,11 +13267,10 @@
         <v>1.392071414738894E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13764,11 +13285,10 @@
         <v>1.3732649385929109E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13783,11 +13303,10 @@
         <v>0.98521476984024048</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13802,11 +13321,10 @@
         <v>1.777531206607819E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13821,11 +13339,10 @@
         <v>1.4986029826104639E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13840,11 +13357,10 @@
         <v>1.36511716991663E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13859,11 +13375,10 @@
         <v>2.8457138687372211E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13878,11 +13393,10 @@
         <v>0.98507970571517944</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F487">
@@ -13900,11 +13414,10 @@
         <v>1.9731750711798671E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13919,11 +13432,10 @@
         <v>0.94544517993927002</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F489">
@@ -13941,11 +13453,10 @@
         <v>6.6369496285915375E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13960,11 +13471,10 @@
         <v>1.3714210130274299E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13979,11 +13489,10 @@
         <v>0.21770370006561279</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13998,11 +13507,10 @@
         <v>1.3930391520261759E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14017,11 +13525,10 @@
         <v>1.442052982747555E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14036,11 +13543,10 @@
         <v>0.97163504362106323</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F495">
@@ -14058,11 +13564,10 @@
         <v>0.98539680242538452</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F496">
@@ -14080,11 +13585,10 @@
         <v>3.5955037921667099E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14099,11 +13603,10 @@
         <v>1.4961696229875089E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14118,11 +13621,10 @@
         <v>0.98417758941650391</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14137,11 +13639,10 @@
         <v>1.758701354265213E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14156,11 +13657,10 @@
         <v>1.4164432883262631E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14175,11 +13675,10 @@
         <v>0.98547309637069702</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14194,11 +13693,10 @@
         <v>1.8020648509263989E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14213,11 +13711,10 @@
         <v>1.4191192574799061E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14232,11 +13729,10 @@
         <v>1.391668897122145E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14251,11 +13747,10 @@
         <v>0.9854094386100769</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14270,11 +13765,10 @@
         <v>0.69964921474456787</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14289,11 +13783,10 @@
         <v>0.98547667264938354</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14308,11 +13801,10 @@
         <v>0.98547124862670898</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14327,11 +13819,10 @@
         <v>0.98547923564910889</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14346,11 +13837,10 @@
         <v>0.98547005653381348</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14365,11 +13855,10 @@
         <v>0.98548418283462524</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14384,11 +13873,10 @@
         <v>0.98547017574310303</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14403,11 +13891,10 @@
         <v>0.98548233509063721</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>1</v>
       </c>
     </row>
@@ -14422,11 +13909,10 @@
         <v>0.98547816276550293</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14441,11 +13927,10 @@
         <v>1.6950687393546101E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14460,11 +13945,10 @@
         <v>1.389294862747192E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14479,11 +13963,10 @@
         <v>3.4866329282522202E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14498,11 +13981,10 @@
         <v>3.4122861921787262E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14517,11 +13999,10 @@
         <v>1.3883094303309919E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14536,11 +14017,10 @@
         <v>0.98496103286743164</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14555,11 +14035,10 @@
         <v>1.4949486590921881E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14574,11 +14053,10 @@
         <v>0.9825935959815979</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14593,11 +14071,10 @@
         <v>0.98530882596969604</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14612,11 +14089,10 @@
         <v>9.5979452133178711E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14631,11 +14107,10 @@
         <v>0.98506850004196167</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14650,11 +14125,10 @@
         <v>1.405048184096813E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14669,11 +14143,10 @@
         <v>1.778349652886391E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14688,11 +14161,10 @@
         <v>1.9072359427809719E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14707,11 +14179,10 @@
         <v>1.5612487681210039E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14726,11 +14197,10 @@
         <v>0.97688359022140503</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F531">
@@ -14748,11 +14218,10 @@
         <v>0.97209584712982178</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F532">
@@ -14770,11 +14239,10 @@
         <v>0.21741589903831479</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14789,11 +14257,10 @@
         <v>0.98448574542999268</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14808,11 +14275,10 @@
         <v>0.98532062768936157</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14827,11 +14293,10 @@
         <v>1.434716861695051E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14846,11 +14311,10 @@
         <v>1.401268318295479E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14865,11 +14329,10 @@
         <v>0.56570696830749512</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14884,11 +14347,10 @@
         <v>5.6244239211082458E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14903,11 +14365,10 @@
         <v>0.9853508472442627</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14922,11 +14383,10 @@
         <v>1.3890892267227169E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14941,11 +14401,10 @@
         <v>1.4179962687194351E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14960,11 +14419,10 @@
         <v>1.4396003447473049E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14979,11 +14437,10 @@
         <v>1.422003284096718E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14998,11 +14455,10 @@
         <v>0.21780657768249509</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15017,11 +14473,10 @@
         <v>1.6870591789484021E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15036,11 +14491,10 @@
         <v>1.3797895051538941E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15055,11 +14509,10 @@
         <v>1.386531069874763E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15074,11 +14527,10 @@
         <v>0.98529726266860962</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F549">
@@ -15096,11 +14548,10 @@
         <v>0.95136493444442749</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F550">
@@ -15118,11 +14569,10 @@
         <v>1.4110947027802471E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15137,11 +14587,10 @@
         <v>0.18866805732250211</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15156,11 +14605,10 @@
         <v>1.37891061604023E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15175,11 +14623,10 @@
         <v>1.390605233609676E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15194,11 +14641,10 @@
         <v>1.3906027190387251E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15213,11 +14659,10 @@
         <v>4.3979749083518982E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15232,11 +14677,10 @@
         <v>1.400427799671888E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15251,11 +14695,10 @@
         <v>1.467806752771139E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15270,11 +14713,10 @@
         <v>3.9817113429307938E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15289,11 +14731,10 @@
         <v>1.3847053982317449E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15308,11 +14749,10 @@
         <v>0.89179325103759766</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F561">
@@ -15330,11 +14770,10 @@
         <v>1.504890434443951E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15349,11 +14788,10 @@
         <v>1.376767829060555E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15368,11 +14806,10 @@
         <v>0.97697609663009644</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15387,11 +14824,10 @@
         <v>1.386607345193624E-2</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15406,11 +14842,10 @@
         <v>1.4124001376330851E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15425,11 +14860,10 @@
         <v>4.4645041227340698E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15444,11 +14878,10 @@
         <v>3.4783180803060532E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15463,11 +14896,10 @@
         <v>1.7143148928880692E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15482,11 +14914,10 @@
         <v>1.3970942236483101E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15501,11 +14932,10 @@
         <v>1.426439639180899E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15520,11 +14950,10 @@
         <v>1.4318921603262419E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15539,11 +14968,10 @@
         <v>1.375261321663857E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15558,11 +14986,10 @@
         <v>1.426439639180899E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15577,11 +15004,10 @@
         <v>2.336727641522884E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15596,11 +15022,10 @@
         <v>1.3786219991743559E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15615,11 +15040,10 @@
         <v>1.777687668800354E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15634,11 +15058,10 @@
         <v>1.5049709938466551E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E641" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
     </row>
@@ -15653,11 +15076,10 @@
         <v>0.21725787222385409</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15672,11 +15094,10 @@
         <v>1.3759050518274311E-2</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15691,11 +15112,10 @@
         <v>1.411789283156395E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15710,11 +15130,10 @@
         <v>1.3856564648449419E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15729,11 +15148,10 @@
         <v>1.380165200680494E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15748,11 +15166,10 @@
         <v>1.366228330880404E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15767,11 +15184,10 @@
         <v>1.3697914779186251E-2</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15786,11 +15202,10 @@
         <v>1.359417196363211E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15805,11 +15220,10 @@
         <v>1.366971991956234E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15824,11 +15238,10 @@
         <v>0.98531424999237061</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15843,11 +15256,10 @@
         <v>1.3674105517566201E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15862,11 +15274,10 @@
         <v>0.37013587355613708</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15881,11 +15292,10 @@
         <v>1.377421803772449E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15900,11 +15310,10 @@
         <v>3.520781546831131E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15919,11 +15328,10 @@
         <v>1.9973855465650558E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15938,11 +15346,10 @@
         <v>0.92868530750274658</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15957,11 +15364,10 @@
         <v>1.4139107428491121E-2</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15976,11 +15382,10 @@
         <v>1.9400143995881081E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15995,11 +15400,10 @@
         <v>1.4486053958535189E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16014,11 +15418,10 @@
         <v>1.4336275868117809E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16033,11 +15436,10 @@
         <v>0.98542815446853638</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16052,11 +15454,10 @@
         <v>1.6717169433832169E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16071,11 +15472,10 @@
         <v>2.1158881485462189E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16090,11 +15490,10 @@
         <v>0.1160716265439987</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16109,11 +15508,10 @@
         <v>0.6409422755241394</v>
       </c>
       <c r="D603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E603">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16128,11 +15526,10 @@
         <v>1.6320167109370232E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16147,11 +15544,10 @@
         <v>0.98526394367218018</v>
       </c>
       <c r="D605">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E605">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16166,11 +15562,10 @@
         <v>1.464441698044538E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16185,11 +15580,10 @@
         <v>0.98485767841339111</v>
       </c>
       <c r="D607">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E607">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F607">
@@ -16207,11 +15601,10 @@
         <v>1.371784135699272E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16226,11 +15619,10 @@
         <v>1.404173206537962E-2</v>
       </c>
       <c r="D609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E609">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16245,11 +15637,10 @@
         <v>0.87233090400695801</v>
       </c>
       <c r="D610">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E610">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F610">
@@ -16267,11 +15658,10 @@
         <v>1.3835807330906389E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16286,11 +15676,10 @@
         <v>4.7951679676771157E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16305,11 +15694,10 @@
         <v>1.372790895402431E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16324,11 +15712,10 @@
         <v>3.7070393562316888E-2</v>
       </c>
       <c r="D614">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E614">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16343,11 +15730,10 @@
         <v>1.465835142880678E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16362,11 +15748,10 @@
         <v>1.377286482602358E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16381,11 +15766,10 @@
         <v>1.4554080553352829E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16400,11 +15784,10 @@
         <v>1.3692903332412239E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16419,11 +15802,10 @@
         <v>0.21745273470878601</v>
       </c>
       <c r="D619">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16438,11 +15820,10 @@
         <v>1.552444044500589E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16457,11 +15838,10 @@
         <v>1.544473227113485E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16476,11 +15856,10 @@
         <v>1.3719828799366949E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16495,11 +15874,10 @@
         <v>1.3750588521361349E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16514,11 +15892,10 @@
         <v>1.37519147247076E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16533,11 +15910,10 @@
         <v>0.2176007479429245</v>
       </c>
       <c r="D625">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16552,11 +15928,10 @@
         <v>0.98531949520111084</v>
       </c>
       <c r="D626">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E626">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F626">
@@ -16574,11 +15949,10 @@
         <v>0.98547816276550293</v>
       </c>
       <c r="D627">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E627">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F627">
@@ -16596,11 +15970,10 @@
         <v>1.3721467927098271E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16615,11 +15988,10 @@
         <v>1.3642429374158381E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16634,11 +16006,10 @@
         <v>0.98543417453765869</v>
       </c>
       <c r="D630">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E630">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F630">
@@ -16656,11 +16027,10 @@
         <v>3.6105379462242133E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16675,11 +16045,10 @@
         <v>0.98443710803985596</v>
       </c>
       <c r="D632">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E632">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F632">
@@ -16697,11 +16066,10 @@
         <v>1.3899993151426321E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16716,11 +16084,10 @@
         <v>0.98542910814285278</v>
       </c>
       <c r="D634">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E634">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F634">
@@ -16738,11 +16105,10 @@
         <v>1.3881887309253219E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16757,11 +16123,10 @@
         <v>0.98546797037124634</v>
       </c>
       <c r="D636">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E636">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F636">
@@ -16779,11 +16144,10 @@
         <v>1.512250211089849E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16798,11 +16162,10 @@
         <v>1.4791028574109079E-2</v>
       </c>
       <c r="D638">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16817,11 +16180,10 @@
         <v>0.98064523935317993</v>
       </c>
       <c r="D639">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E639">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F639">
@@ -16839,11 +16201,10 @@
         <v>1.4791028574109079E-2</v>
       </c>
       <c r="D640">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E640">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16858,11 +16219,10 @@
         <v>0.21722663938999179</v>
       </c>
       <c r="D641">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16877,11 +16237,10 @@
         <v>1.4257499016821379E-2</v>
       </c>
       <c r="D642">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E642">
-        <f t="shared" ref="E642:E682" si="20">IF(ISBLANK(F642),D642,F642)</f>
         <v>0</v>
       </c>
     </row>
@@ -16896,11 +16255,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D682" si="21">IF(C643&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D643:D682" si="10">IF(C643&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E643">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16915,11 +16273,10 @@
         <v>2.4904424324631691E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16934,11 +16291,10 @@
         <v>1.4449352398514749E-2</v>
       </c>
       <c r="D645">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16953,11 +16309,10 @@
         <v>1.3702875934541231E-2</v>
       </c>
       <c r="D646">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E646">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16972,11 +16327,10 @@
         <v>0.98542165756225586</v>
       </c>
       <c r="D647">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E647">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F647">
@@ -16994,11 +16348,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17013,11 +16366,10 @@
         <v>1.7057625576853749E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17032,11 +16384,10 @@
         <v>1.5734797343611721E-2</v>
       </c>
       <c r="D650">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E650">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17051,11 +16402,10 @@
         <v>0.97613698244094849</v>
       </c>
       <c r="D651">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E651">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F651">
@@ -17073,11 +16423,10 @@
         <v>2.737207151949406E-2</v>
       </c>
       <c r="D652">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17092,11 +16441,10 @@
         <v>7.8429035842418671E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17111,11 +16459,10 @@
         <v>0.10554952919483181</v>
       </c>
       <c r="D654">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17130,11 +16477,10 @@
         <v>0.62513911724090576</v>
       </c>
       <c r="D655">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E655">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17149,11 +16495,10 @@
         <v>1.3695273548364639E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17168,11 +16513,10 @@
         <v>2.4999076500535011E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17187,11 +16531,10 @@
         <v>1.3815373182296749E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17206,11 +16549,10 @@
         <v>3.9076581597328193E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17225,11 +16567,10 @@
         <v>1.420108880847692E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17244,11 +16585,10 @@
         <v>4.9246329814195633E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17263,11 +16603,10 @@
         <v>1.366369612514973E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17282,11 +16621,10 @@
         <v>1.363288518041372E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17301,11 +16639,10 @@
         <v>0.98009365797042847</v>
       </c>
       <c r="D664">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E664">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17320,11 +16657,10 @@
         <v>1.4170181937515741E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17339,11 +16675,10 @@
         <v>1.374729722738266E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17358,11 +16693,10 @@
         <v>0.98283213376998901</v>
       </c>
       <c r="D667">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E667">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F667">
@@ -17380,11 +16714,10 @@
         <v>1.408462226390839E-2</v>
       </c>
       <c r="D668">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17399,11 +16732,10 @@
         <v>1.4357388019561769E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17418,11 +16750,10 @@
         <v>0.98547375202178955</v>
       </c>
       <c r="D670">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E670">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F670">
@@ -17440,11 +16771,10 @@
         <v>0.97581541538238525</v>
       </c>
       <c r="D671">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E671">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F671">
@@ -17462,11 +16792,10 @@
         <v>0.98547214269638062</v>
       </c>
       <c r="D672">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E672">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17481,11 +16810,10 @@
         <v>1.373788714408875E-2</v>
       </c>
       <c r="D673">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E673">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17500,11 +16828,10 @@
         <v>1.640209369361401E-2</v>
       </c>
       <c r="D674">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17519,11 +16846,10 @@
         <v>0.9847571849822998</v>
       </c>
       <c r="D675">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E675">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F675">
@@ -17541,11 +16867,10 @@
         <v>0.98546892404556274</v>
       </c>
       <c r="D676">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E676">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17560,11 +16885,10 @@
         <v>0.98495817184448242</v>
       </c>
       <c r="D677">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E677">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F677">
@@ -17582,11 +16906,10 @@
         <v>0.98508703708648682</v>
       </c>
       <c r="D678">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E678">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F678">
@@ -17604,11 +16927,10 @@
         <v>1.400429848581553E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17623,11 +16945,10 @@
         <v>1.392872724682093E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17642,11 +16963,10 @@
         <v>0.985443115234375</v>
       </c>
       <c r="D681">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E681">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F681">
@@ -17664,11 +16984,10 @@
         <v>0.98545897006988525</v>
       </c>
       <c r="D682">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E682">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F682">
